--- a/Extra/Yields_2022_backup.xlsx
+++ b/Extra/Yields_2022_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Documents\GitHub\Soy_Mili_Vale\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F58A3D7-DCB3-4A2A-8065-5C3F3108F26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377CFA80-77C2-43D5-8161-7023AF738D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,18 +79,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -125,10 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,13 +405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" style="1" bestFit="1" customWidth="1"/>
@@ -436,7 +430,7 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -448,7 +442,7 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -465,7 +459,7 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F2" s="2">
@@ -477,7 +471,7 @@
       <c r="H2" s="1">
         <v>294</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>87</v>
       </c>
     </row>
@@ -494,7 +488,7 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F3" s="2">
@@ -506,7 +500,7 @@
       <c r="H3" s="1">
         <v>294</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>155</v>
       </c>
     </row>
@@ -523,7 +517,7 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F4" s="2">
@@ -535,7 +529,7 @@
       <c r="H4" s="1">
         <v>294</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>109</v>
       </c>
     </row>
@@ -552,7 +546,7 @@
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F5" s="2">
@@ -564,7 +558,7 @@
       <c r="H5" s="1">
         <v>297</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>65</v>
       </c>
     </row>
@@ -581,7 +575,7 @@
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F6" s="2">
@@ -593,7 +587,7 @@
       <c r="H6" s="1">
         <v>297</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>40</v>
       </c>
     </row>
@@ -610,7 +604,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F7" s="2">
@@ -622,7 +616,7 @@
       <c r="H7" s="1">
         <v>297</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>130</v>
       </c>
     </row>
@@ -639,7 +633,7 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F8" s="2">
@@ -651,7 +645,7 @@
       <c r="H8" s="1">
         <v>294</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>87</v>
       </c>
     </row>
@@ -668,7 +662,7 @@
       <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F9" s="2">
@@ -680,7 +674,7 @@
       <c r="H9" s="1">
         <v>294</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>65</v>
       </c>
     </row>
@@ -697,7 +691,7 @@
       <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F10" s="2">
@@ -709,7 +703,7 @@
       <c r="H10" s="1">
         <v>294</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>109</v>
       </c>
     </row>
@@ -726,7 +720,7 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F11" s="2">
@@ -738,7 +732,7 @@
       <c r="H11" s="1">
         <v>297</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>40</v>
       </c>
     </row>
@@ -755,7 +749,7 @@
       <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F12" s="2">
@@ -767,7 +761,7 @@
       <c r="H12" s="1">
         <v>297</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>130</v>
       </c>
     </row>
@@ -784,7 +778,7 @@
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F13" s="2">
@@ -796,7 +790,7 @@
       <c r="H13" s="1">
         <v>297</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>155</v>
       </c>
     </row>
@@ -813,7 +807,7 @@
       <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F14" s="2">
@@ -825,7 +819,7 @@
       <c r="H14" s="1">
         <v>294</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>87</v>
       </c>
     </row>
@@ -842,7 +836,7 @@
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F15" s="2">
@@ -854,7 +848,7 @@
       <c r="H15" s="1">
         <v>294</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>130</v>
       </c>
     </row>
@@ -871,7 +865,7 @@
       <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F16" s="2">
@@ -883,7 +877,7 @@
       <c r="H16" s="1">
         <v>294</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <v>155</v>
       </c>
     </row>
@@ -900,7 +894,7 @@
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F17" s="2">
@@ -912,7 +906,7 @@
       <c r="H17" s="1">
         <v>297</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>109</v>
       </c>
     </row>
@@ -929,7 +923,7 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F18" s="2">
@@ -941,7 +935,7 @@
       <c r="H18" s="1">
         <v>297</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>65</v>
       </c>
     </row>
@@ -958,7 +952,7 @@
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F19" s="2">
@@ -970,7 +964,7 @@
       <c r="H19" s="1">
         <v>297</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>40</v>
       </c>
     </row>
@@ -987,7 +981,7 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F20" s="2">
@@ -999,7 +993,7 @@
       <c r="H20" s="1">
         <v>294</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>155</v>
       </c>
     </row>
@@ -1016,7 +1010,7 @@
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F21" s="2">
@@ -1028,7 +1022,7 @@
       <c r="H21" s="1">
         <v>294</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>87</v>
       </c>
     </row>
@@ -1045,7 +1039,7 @@
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F22" s="2">
@@ -1057,7 +1051,7 @@
       <c r="H22" s="1">
         <v>294</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>130</v>
       </c>
     </row>
@@ -1074,7 +1068,7 @@
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F23" s="2">
@@ -1086,7 +1080,7 @@
       <c r="H23" s="1">
         <v>297</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1103,7 +1097,7 @@
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F24" s="2">
@@ -1115,7 +1109,7 @@
       <c r="H24" s="1">
         <v>297</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <v>109</v>
       </c>
     </row>
@@ -1132,7 +1126,7 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F25" s="2">
@@ -1144,7 +1138,7 @@
       <c r="H25" s="1">
         <v>297</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1161,7 +1155,7 @@
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F26" s="2">
@@ -1173,7 +1167,7 @@
       <c r="H26" s="1">
         <v>294</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>130</v>
       </c>
     </row>
@@ -1190,7 +1184,7 @@
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F27" s="2">
@@ -1202,7 +1196,7 @@
       <c r="H27" s="1">
         <v>294</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1219,7 +1213,7 @@
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F28" s="2">
@@ -1231,7 +1225,7 @@
       <c r="H28" s="1">
         <v>294</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
         <v>109</v>
       </c>
     </row>
@@ -1248,7 +1242,7 @@
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F29" s="2">
@@ -1260,7 +1254,7 @@
       <c r="H29" s="1">
         <v>305</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4">
         <v>155</v>
       </c>
     </row>
@@ -1277,7 +1271,7 @@
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F30" s="2">
@@ -1289,7 +1283,7 @@
       <c r="H30" s="1">
         <v>305</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4">
         <v>87</v>
       </c>
     </row>
@@ -1306,7 +1300,7 @@
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F31" s="2">
@@ -1318,7 +1312,7 @@
       <c r="H31" s="1">
         <v>305</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1335,7 +1329,7 @@
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F32" s="2">
@@ -1347,7 +1341,7 @@
       <c r="H32" s="1">
         <v>294</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="4">
         <v>109</v>
       </c>
     </row>
@@ -1364,7 +1358,7 @@
       <c r="D33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F33" s="2">
@@ -1376,7 +1370,7 @@
       <c r="H33" s="1">
         <v>294</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="4">
         <v>87</v>
       </c>
     </row>
@@ -1393,7 +1387,7 @@
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F34" s="2">
@@ -1405,7 +1399,7 @@
       <c r="H34" s="1">
         <v>294</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1422,7 +1416,7 @@
       <c r="D35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F35" s="2">
@@ -1434,7 +1428,7 @@
       <c r="H35" s="1">
         <v>305</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1451,7 +1445,7 @@
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F36" s="2">
@@ -1463,7 +1457,7 @@
       <c r="H36" s="1">
         <v>305</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="4">
         <v>130</v>
       </c>
     </row>
@@ -1480,7 +1474,7 @@
       <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F37" s="2">
@@ -1492,7 +1486,7 @@
       <c r="H37" s="1">
         <v>305</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="4">
         <v>155</v>
       </c>
     </row>
@@ -1509,7 +1503,7 @@
       <c r="D38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F38" s="2">
@@ -1521,7 +1515,7 @@
       <c r="H38" s="1">
         <v>294</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1538,7 +1532,7 @@
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F39" s="2">
@@ -1550,7 +1544,7 @@
       <c r="H39" s="1">
         <v>294</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="4">
         <v>87</v>
       </c>
     </row>
@@ -1567,7 +1561,7 @@
       <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F40" s="2">
@@ -1579,7 +1573,7 @@
       <c r="H40" s="1">
         <v>294</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1596,7 +1590,7 @@
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F41" s="2">
@@ -1608,7 +1602,7 @@
       <c r="H41" s="1">
         <v>305</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
         <v>109</v>
       </c>
     </row>
@@ -1625,7 +1619,7 @@
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F42" s="2">
@@ -1637,7 +1631,7 @@
       <c r="H42" s="1">
         <v>305</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="4">
         <v>155</v>
       </c>
     </row>
@@ -1654,7 +1648,7 @@
       <c r="D43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F43" s="2">
@@ -1666,7 +1660,7 @@
       <c r="H43" s="1">
         <v>305</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="4">
         <v>130</v>
       </c>
     </row>
@@ -1683,7 +1677,7 @@
       <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>160.61835595992943</v>
       </c>
       <c r="F44" s="2">
@@ -1695,7 +1689,7 @@
       <c r="H44" s="1">
         <v>306</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1712,7 +1706,7 @@
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>214.98149182329016</v>
       </c>
       <c r="F45" s="2">
@@ -1724,7 +1718,7 @@
       <c r="H45" s="1">
         <v>306</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="4">
         <v>87</v>
       </c>
     </row>
@@ -1741,7 +1735,7 @@
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>383.01300267367787</v>
       </c>
       <c r="F46" s="2">
@@ -1753,7 +1747,7 @@
       <c r="H46" s="1">
         <v>306</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="4">
         <v>155</v>
       </c>
     </row>
@@ -1770,7 +1764,7 @@
       <c r="D47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>269.34462768665088</v>
       </c>
       <c r="F47" s="2">
@@ -1782,7 +1776,7 @@
       <c r="H47" s="1">
         <v>305</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="4">
         <v>109</v>
       </c>
     </row>
@@ -1799,7 +1793,7 @@
       <c r="D48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>321.23671191985886</v>
       </c>
       <c r="F48" s="2">
@@ -1811,7 +1805,7 @@
       <c r="H48" s="1">
         <v>305</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="4">
         <v>130</v>
       </c>
     </row>
@@ -1828,7 +1822,7 @@
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>98.842065206110419</v>
       </c>
       <c r="F49" s="2">
@@ -1840,7 +1834,7 @@
       <c r="H49" s="1">
         <v>305</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="4">
         <v>40</v>
       </c>
     </row>
